--- a/biology/Histoire de la zoologie et de la botanique/Jacobus_Theodorus_Tabernaemontanus/Jacobus_Theodorus_Tabernaemontanus.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Jacobus_Theodorus_Tabernaemontanus/Jacobus_Theodorus_Tabernaemontanus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jacobus Theodorus Tabernaemontanus ou Jakob Dietrich von Bergzabern (né à Bad Bergzabern en 1522 et mort à Heidelberg le 24 août 1590), connu aussi sous le nom de Tabernaemontanus, latinisation de son lieu de naissance Bergzabern, est un botaniste et médecin allemand. 
 </t>
@@ -511,7 +523,9 @@
           <t>Éponymie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Charles Plumier dédiera en son honneur le genre Tabernaemontana de la famille des Apocynacées, nom repris par Linné.
 </t>
@@ -542,7 +556,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Neuw Wasserschatz (1581)
 Neuw Kreuterbuch (Frankfurt, 1588), première version du chef-d'œuvre à l'origine de sa réputation.
